--- a/vmes-file/fileUpload/excelTemplet/EmployeeBySimpleExcelImport.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/EmployeeBySimpleExcelImport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,11 +170,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
+    <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A995" workbookViewId="0">
-      <selection activeCell="A1000" sqref="A1000"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,7 +588,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -631,7 +635,7 @@
     </row>
     <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -677,7 +681,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
